--- a/Все программы для диплома/UniversalWindow/Для класстеров.xlsx
+++ b/Все программы для диплома/UniversalWindow/Для класстеров.xlsx
@@ -9,27 +9,29 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Жінки" sheetId="5" r:id="rId1"/>
     <sheet name=" Женщины" sheetId="1" r:id="rId2"/>
     <sheet name="Мужчины" sheetId="2" r:id="rId3"/>
+    <sheet name="ClusterЖінки" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase">Мужчины!$A$1:$V$324</definedName>
     <definedName name="Cluster">#REF!</definedName>
     <definedName name="Clusters">#REF!</definedName>
-    <definedName name="ClusterЖінки">#REF!</definedName>
+    <definedName name="ClusterЖінки">ClusterЖінки!$A$1:$D$277</definedName>
     <definedName name="Clusterжінки123">#REF!</definedName>
     <definedName name="ClusterМужчины">#REF!</definedName>
+    <definedName name="Жінки">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="264">
   <si>
     <t>№</t>
   </si>
@@ -810,6 +812,18 @@
   <si>
     <t>Шаульська</t>
   </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>NextCl</t>
+  </si>
+  <si>
+    <t>NextDist</t>
+  </si>
+  <si>
+    <t>Dist</t>
+  </si>
 </sst>
 </file>
 
@@ -42154,7 +42168,7 @@
   <dimension ref="A1:X323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="A1:X323"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42183,7 +42197,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -66102,4 +66116,3897 @@
   <autoFilter ref="A1:V324"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D277"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1167.45</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1258.3900000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>566.39</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1006.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1435.12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2400.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>461.46</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1417.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>494.93</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>884.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>791.12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1010.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>872.59</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1151.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1652.37</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2070.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>416</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>507.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1038.29</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1320.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
+        <v>530.09</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>642.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>459.58</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2241.2600000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>922.34</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3">
+        <v>955.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3">
+        <v>786.63</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1946.46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1150.74</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1615.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3">
+        <v>762.49</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1112.8800000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3">
+        <v>132135.81</v>
+      </c>
+      <c r="C18" s="3">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3">
+        <v>140457.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3">
+        <v>927.95</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3674.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3">
+        <v>775.18</v>
+      </c>
+      <c r="C20" s="3">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1871.59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1376.37</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2102.2600000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1412.15</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3817.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3">
+        <v>960.46</v>
+      </c>
+      <c r="C23" s="3">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2310.1999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3">
+        <v>937.32</v>
+      </c>
+      <c r="C24" s="3">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1782.92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>664.92</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1642.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3">
+        <v>628.09</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>965.17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3">
+        <v>704.57</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3">
+        <v>732.01</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1456.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>7</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1933.49</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3286.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>7</v>
+      </c>
+      <c r="B30" s="3">
+        <v>573.76</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1764.62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3">
+        <v>697.75</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1907.02</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3">
+        <v>442.8</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>3</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2523.4299999999998</v>
+      </c>
+      <c r="C33" s="3">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3921.46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>6</v>
+      </c>
+      <c r="B34" s="3">
+        <v>487.04</v>
+      </c>
+      <c r="C34" s="3">
+        <v>8</v>
+      </c>
+      <c r="D34" s="3">
+        <v>936.96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3">
+        <v>822.92</v>
+      </c>
+      <c r="C35" s="3">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2351.7600000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>3</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1303.82</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1523.98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>7</v>
+      </c>
+      <c r="B37" s="3">
+        <v>497.97</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>636.73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>7</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1980.79</v>
+      </c>
+      <c r="C38" s="3">
+        <v>6</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2189.4699999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3">
+        <v>835.71</v>
+      </c>
+      <c r="C39" s="3">
+        <v>6</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1378.46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>1</v>
+      </c>
+      <c r="B40" s="3">
+        <v>695.46</v>
+      </c>
+      <c r="C40" s="3">
+        <v>3</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1615.88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>7</v>
+      </c>
+      <c r="B41" s="3">
+        <v>878.08</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
+        <v>912.93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>7</v>
+      </c>
+      <c r="B42" s="3">
+        <v>410.9</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1327.42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>7</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1299.6199999999999</v>
+      </c>
+      <c r="C43" s="3">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1664.04</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>6</v>
+      </c>
+      <c r="B44" s="3">
+        <v>530.41</v>
+      </c>
+      <c r="C44" s="3">
+        <v>8</v>
+      </c>
+      <c r="D44" s="3">
+        <v>575.94000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>6</v>
+      </c>
+      <c r="B45" s="3">
+        <v>439.54</v>
+      </c>
+      <c r="C45" s="3">
+        <v>8</v>
+      </c>
+      <c r="D45" s="3">
+        <v>771.57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>1</v>
+      </c>
+      <c r="B46" s="3">
+        <v>540.79</v>
+      </c>
+      <c r="C46" s="3">
+        <v>3</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1514.47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>2</v>
+      </c>
+      <c r="B47" s="3">
+        <v>787.22</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1074.8900000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>1</v>
+      </c>
+      <c r="B48" s="3">
+        <v>703.81</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1612.57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3">
+        <v>860.06</v>
+      </c>
+      <c r="C49" s="3">
+        <v>6</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2254.33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>4</v>
+      </c>
+      <c r="B50" s="3">
+        <v>722.67</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1085.76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>8</v>
+      </c>
+      <c r="B51" s="3">
+        <v>864.12</v>
+      </c>
+      <c r="C51" s="3">
+        <v>6</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1027.47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>3</v>
+      </c>
+      <c r="B52" s="3">
+        <v>638.41</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1485.35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>8</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1155.76</v>
+      </c>
+      <c r="C53" s="3">
+        <v>6</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1752.96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>7</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2027.94</v>
+      </c>
+      <c r="C54" s="3">
+        <v>6</v>
+      </c>
+      <c r="D54" s="3">
+        <v>3341.78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>7</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1625.47</v>
+      </c>
+      <c r="C55" s="3">
+        <v>8</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2291.2800000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>8</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1952.19</v>
+      </c>
+      <c r="C56" s="3">
+        <v>7</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2009.73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>8</v>
+      </c>
+      <c r="B57" s="3">
+        <v>904.53</v>
+      </c>
+      <c r="C57" s="3">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1186.43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>8</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1033.71</v>
+      </c>
+      <c r="C58" s="3">
+        <v>6</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2407.2199999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>8</v>
+      </c>
+      <c r="B59" s="3">
+        <v>888.98</v>
+      </c>
+      <c r="C59" s="3">
+        <v>6</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2270.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>6</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1226.1199999999999</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1289.81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>6</v>
+      </c>
+      <c r="B61" s="3">
+        <v>431.17</v>
+      </c>
+      <c r="C61" s="3">
+        <v>8</v>
+      </c>
+      <c r="D61" s="3">
+        <v>515.35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>7</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1563.23</v>
+      </c>
+      <c r="C62" s="3">
+        <v>8</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1698.92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>8</v>
+      </c>
+      <c r="B63" s="3">
+        <v>3386.47</v>
+      </c>
+      <c r="C63" s="3">
+        <v>6</v>
+      </c>
+      <c r="D63" s="3">
+        <v>5767</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>8</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1926.52</v>
+      </c>
+      <c r="C64" s="3">
+        <v>6</v>
+      </c>
+      <c r="D64" s="3">
+        <v>3203.95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>1</v>
+      </c>
+      <c r="B65" s="3">
+        <v>384.38</v>
+      </c>
+      <c r="C65" s="3">
+        <v>6</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1232.1600000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>1</v>
+      </c>
+      <c r="B66" s="3">
+        <v>552.35</v>
+      </c>
+      <c r="C66" s="3">
+        <v>6</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1097.72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>4</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1068.96</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1386.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>2</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1191.1199999999999</v>
+      </c>
+      <c r="C68" s="3">
+        <v>3</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1339.09</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>3</v>
+      </c>
+      <c r="B69" s="3">
+        <v>500.2</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2325.61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>6</v>
+      </c>
+      <c r="B70" s="3">
+        <v>154.11000000000001</v>
+      </c>
+      <c r="C70" s="3">
+        <v>8</v>
+      </c>
+      <c r="D70" s="3">
+        <v>808.47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>8</v>
+      </c>
+      <c r="B71" s="3">
+        <v>132135.81</v>
+      </c>
+      <c r="C71" s="3">
+        <v>7</v>
+      </c>
+      <c r="D71" s="3">
+        <v>140457.75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>8</v>
+      </c>
+      <c r="B72" s="3">
+        <v>394.26</v>
+      </c>
+      <c r="C72" s="3">
+        <v>6</v>
+      </c>
+      <c r="D72" s="3">
+        <v>402.32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>8</v>
+      </c>
+      <c r="B73" s="3">
+        <v>561.11</v>
+      </c>
+      <c r="C73" s="3">
+        <v>6</v>
+      </c>
+      <c r="D73" s="3">
+        <v>788.81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>6</v>
+      </c>
+      <c r="B74" s="3">
+        <v>881.49</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1116.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>6</v>
+      </c>
+      <c r="B75" s="3">
+        <v>831.79</v>
+      </c>
+      <c r="C75" s="3">
+        <v>8</v>
+      </c>
+      <c r="D75" s="3">
+        <v>1293.94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>7</v>
+      </c>
+      <c r="B76" s="3">
+        <v>838.04</v>
+      </c>
+      <c r="C76" s="3">
+        <v>6</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1361.83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>8</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1632.75</v>
+      </c>
+      <c r="C77" s="3">
+        <v>7</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1755.94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>5</v>
+      </c>
+      <c r="B78" s="3">
+        <v>608.30999999999995</v>
+      </c>
+      <c r="C78" s="3">
+        <v>3</v>
+      </c>
+      <c r="D78" s="3">
+        <v>3052.73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>5</v>
+      </c>
+      <c r="B79" s="3">
+        <v>8821.91</v>
+      </c>
+      <c r="C79" s="3">
+        <v>2</v>
+      </c>
+      <c r="D79" s="3">
+        <v>15664.06</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>6</v>
+      </c>
+      <c r="B80" s="3">
+        <v>677.94</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3">
+        <v>812.22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>3</v>
+      </c>
+      <c r="B81" s="3">
+        <v>675.68</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1</v>
+      </c>
+      <c r="D81" s="3">
+        <v>2416.86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>6</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1763.9</v>
+      </c>
+      <c r="C82" s="3">
+        <v>8</v>
+      </c>
+      <c r="D82" s="3">
+        <v>1773.05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>8</v>
+      </c>
+      <c r="B83" s="3">
+        <v>450.73</v>
+      </c>
+      <c r="C83" s="3">
+        <v>6</v>
+      </c>
+      <c r="D83" s="3">
+        <v>696.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>6</v>
+      </c>
+      <c r="B84" s="3">
+        <v>288.67</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3">
+        <v>825.85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>8</v>
+      </c>
+      <c r="B85" s="3">
+        <v>334.87</v>
+      </c>
+      <c r="C85" s="3">
+        <v>6</v>
+      </c>
+      <c r="D85" s="3">
+        <v>417.78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>3</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1254.73</v>
+      </c>
+      <c r="C86" s="3">
+        <v>5</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2534.61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>7</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1161.24</v>
+      </c>
+      <c r="C87" s="3">
+        <v>3</v>
+      </c>
+      <c r="D87" s="3">
+        <v>2639.54</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>1</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1376.42</v>
+      </c>
+      <c r="C88" s="3">
+        <v>7</v>
+      </c>
+      <c r="D88" s="3">
+        <v>1474.91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>1</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1164.47</v>
+      </c>
+      <c r="C89" s="3">
+        <v>6</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1281.05</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>3</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2626.5</v>
+      </c>
+      <c r="C90" s="3">
+        <v>7</v>
+      </c>
+      <c r="D90" s="3">
+        <v>3238.77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>1</v>
+      </c>
+      <c r="B91" s="3">
+        <v>705.55</v>
+      </c>
+      <c r="C91" s="3">
+        <v>3</v>
+      </c>
+      <c r="D91" s="3">
+        <v>1193.45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>3</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1524.94</v>
+      </c>
+      <c r="C92" s="3">
+        <v>5</v>
+      </c>
+      <c r="D92" s="3">
+        <v>2513.46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>3</v>
+      </c>
+      <c r="B93" s="3">
+        <v>3076.06</v>
+      </c>
+      <c r="C93" s="3">
+        <v>5</v>
+      </c>
+      <c r="D93" s="3">
+        <v>3916.46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>7</v>
+      </c>
+      <c r="B94" s="3">
+        <v>726.55</v>
+      </c>
+      <c r="C94" s="3">
+        <v>6</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1007.53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>1</v>
+      </c>
+      <c r="B95" s="3">
+        <v>727.8</v>
+      </c>
+      <c r="C95" s="3">
+        <v>4</v>
+      </c>
+      <c r="D95" s="3">
+        <v>1077.27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>4</v>
+      </c>
+      <c r="B96" s="3">
+        <v>923.25</v>
+      </c>
+      <c r="C96" s="3">
+        <v>2</v>
+      </c>
+      <c r="D96" s="3">
+        <v>1431.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>8</v>
+      </c>
+      <c r="B97" s="3">
+        <v>585.05999999999995</v>
+      </c>
+      <c r="C97" s="3">
+        <v>6</v>
+      </c>
+      <c r="D97" s="3">
+        <v>1275.82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>8</v>
+      </c>
+      <c r="B98" s="3">
+        <v>405.51</v>
+      </c>
+      <c r="C98" s="3">
+        <v>6</v>
+      </c>
+      <c r="D98" s="3">
+        <v>1547.88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>8</v>
+      </c>
+      <c r="B99" s="3">
+        <v>541.22</v>
+      </c>
+      <c r="C99" s="3">
+        <v>6</v>
+      </c>
+      <c r="D99" s="3">
+        <v>1409.52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>8</v>
+      </c>
+      <c r="B100" s="3">
+        <v>462.33</v>
+      </c>
+      <c r="C100" s="3">
+        <v>6</v>
+      </c>
+      <c r="D100" s="3">
+        <v>1050.76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>8</v>
+      </c>
+      <c r="B101" s="3">
+        <v>671.41</v>
+      </c>
+      <c r="C101" s="3">
+        <v>6</v>
+      </c>
+      <c r="D101" s="3">
+        <v>1179.79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>1</v>
+      </c>
+      <c r="B102" s="3">
+        <v>1038.3499999999999</v>
+      </c>
+      <c r="C102" s="3">
+        <v>6</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1559.19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>6</v>
+      </c>
+      <c r="B103" s="3">
+        <v>248.19</v>
+      </c>
+      <c r="C103" s="3">
+        <v>8</v>
+      </c>
+      <c r="D103" s="3">
+        <v>419.57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>6</v>
+      </c>
+      <c r="B104" s="3">
+        <v>704.14</v>
+      </c>
+      <c r="C104" s="3">
+        <v>8</v>
+      </c>
+      <c r="D104" s="3">
+        <v>708.82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>3</v>
+      </c>
+      <c r="B105" s="3">
+        <v>652</v>
+      </c>
+      <c r="C105" s="3">
+        <v>1</v>
+      </c>
+      <c r="D105" s="3">
+        <v>1941.71</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>3</v>
+      </c>
+      <c r="B106" s="3">
+        <v>896.27</v>
+      </c>
+      <c r="C106" s="3">
+        <v>5</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1235.9100000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>1</v>
+      </c>
+      <c r="B107" s="3">
+        <v>328.4</v>
+      </c>
+      <c r="C107" s="3">
+        <v>6</v>
+      </c>
+      <c r="D107" s="3">
+        <v>692.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>6</v>
+      </c>
+      <c r="B108" s="3">
+        <v>344.06</v>
+      </c>
+      <c r="C108" s="3">
+        <v>7</v>
+      </c>
+      <c r="D108" s="3">
+        <v>492.08</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>7</v>
+      </c>
+      <c r="B109" s="3">
+        <v>736.19</v>
+      </c>
+      <c r="C109" s="3">
+        <v>6</v>
+      </c>
+      <c r="D109" s="3">
+        <v>943.68</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>6</v>
+      </c>
+      <c r="B110" s="3">
+        <v>571.24</v>
+      </c>
+      <c r="C110" s="3">
+        <v>8</v>
+      </c>
+      <c r="D110" s="3">
+        <v>594.73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>8</v>
+      </c>
+      <c r="B111" s="3">
+        <v>1091.67</v>
+      </c>
+      <c r="C111" s="3">
+        <v>7</v>
+      </c>
+      <c r="D111" s="3">
+        <v>1170.3399999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>3</v>
+      </c>
+      <c r="B112" s="3">
+        <v>428.47</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1</v>
+      </c>
+      <c r="D112" s="3">
+        <v>2106.63</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>3</v>
+      </c>
+      <c r="B113" s="3">
+        <v>976.99</v>
+      </c>
+      <c r="C113" s="3">
+        <v>5</v>
+      </c>
+      <c r="D113" s="3">
+        <v>1001.71</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>6</v>
+      </c>
+      <c r="B114" s="3">
+        <v>644.57000000000005</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1</v>
+      </c>
+      <c r="D114" s="3">
+        <v>808.65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>8</v>
+      </c>
+      <c r="B115" s="3">
+        <v>132135.81</v>
+      </c>
+      <c r="C115" s="3">
+        <v>7</v>
+      </c>
+      <c r="D115" s="3">
+        <v>140457.75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>6</v>
+      </c>
+      <c r="B116" s="3">
+        <v>885.49</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1141.98</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>8</v>
+      </c>
+      <c r="B117" s="3">
+        <v>132135.81</v>
+      </c>
+      <c r="C117" s="3">
+        <v>7</v>
+      </c>
+      <c r="D117" s="3">
+        <v>140457.75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>6</v>
+      </c>
+      <c r="B118" s="3">
+        <v>827.15</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1</v>
+      </c>
+      <c r="D118" s="3">
+        <v>947.92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>8</v>
+      </c>
+      <c r="B119" s="3">
+        <v>579.01</v>
+      </c>
+      <c r="C119" s="3">
+        <v>6</v>
+      </c>
+      <c r="D119" s="3">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>1</v>
+      </c>
+      <c r="B120" s="3">
+        <v>703.76</v>
+      </c>
+      <c r="C120" s="3">
+        <v>6</v>
+      </c>
+      <c r="D120" s="3">
+        <v>723.6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>4</v>
+      </c>
+      <c r="B121" s="3">
+        <v>960.66</v>
+      </c>
+      <c r="C121" s="3">
+        <v>6</v>
+      </c>
+      <c r="D121" s="3">
+        <v>1180.8699999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>1</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1023.75</v>
+      </c>
+      <c r="C122" s="3">
+        <v>7</v>
+      </c>
+      <c r="D122" s="3">
+        <v>1646.55</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>4</v>
+      </c>
+      <c r="B123" s="3">
+        <v>633.51</v>
+      </c>
+      <c r="C123" s="3">
+        <v>6</v>
+      </c>
+      <c r="D123" s="3">
+        <v>1822.38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>6</v>
+      </c>
+      <c r="B124" s="3">
+        <v>417.24</v>
+      </c>
+      <c r="C124" s="3">
+        <v>8</v>
+      </c>
+      <c r="D124" s="3">
+        <v>1006.7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>2</v>
+      </c>
+      <c r="B125" s="3">
+        <v>768.1</v>
+      </c>
+      <c r="C125" s="3">
+        <v>4</v>
+      </c>
+      <c r="D125" s="3">
+        <v>1330.08</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>5</v>
+      </c>
+      <c r="B126" s="3">
+        <v>1103.26</v>
+      </c>
+      <c r="C126" s="3">
+        <v>3</v>
+      </c>
+      <c r="D126" s="3">
+        <v>2182.61</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>7</v>
+      </c>
+      <c r="B127" s="3">
+        <v>859.05</v>
+      </c>
+      <c r="C127" s="3">
+        <v>6</v>
+      </c>
+      <c r="D127" s="3">
+        <v>915.82</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>7</v>
+      </c>
+      <c r="B128" s="3">
+        <v>1710.13</v>
+      </c>
+      <c r="C128" s="3">
+        <v>8</v>
+      </c>
+      <c r="D128" s="3">
+        <v>1855.91</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>1</v>
+      </c>
+      <c r="B129" s="3">
+        <v>880.67</v>
+      </c>
+      <c r="C129" s="3">
+        <v>3</v>
+      </c>
+      <c r="D129" s="3">
+        <v>1292.83</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>3</v>
+      </c>
+      <c r="B130" s="3">
+        <v>852.38</v>
+      </c>
+      <c r="C130" s="3">
+        <v>1</v>
+      </c>
+      <c r="D130" s="3">
+        <v>1478.58</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>1</v>
+      </c>
+      <c r="B131" s="3">
+        <v>1612.57</v>
+      </c>
+      <c r="C131" s="3">
+        <v>3</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1623.4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>1</v>
+      </c>
+      <c r="B132" s="3">
+        <v>1188.6300000000001</v>
+      </c>
+      <c r="C132" s="3">
+        <v>7</v>
+      </c>
+      <c r="D132" s="3">
+        <v>1551.04</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>6</v>
+      </c>
+      <c r="B133" s="3">
+        <v>687.69</v>
+      </c>
+      <c r="C133" s="3">
+        <v>7</v>
+      </c>
+      <c r="D133" s="3">
+        <v>1256.04</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>7</v>
+      </c>
+      <c r="B134" s="3">
+        <v>1424.48</v>
+      </c>
+      <c r="C134" s="3">
+        <v>6</v>
+      </c>
+      <c r="D134" s="3">
+        <v>2030.86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>6</v>
+      </c>
+      <c r="B135" s="3">
+        <v>1176.04</v>
+      </c>
+      <c r="C135" s="3">
+        <v>4</v>
+      </c>
+      <c r="D135" s="3">
+        <v>1274.55</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>8</v>
+      </c>
+      <c r="B136" s="3">
+        <v>1047.3599999999999</v>
+      </c>
+      <c r="C136" s="3">
+        <v>6</v>
+      </c>
+      <c r="D136" s="3">
+        <v>1513.92</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>1</v>
+      </c>
+      <c r="B137" s="3">
+        <v>1128.04</v>
+      </c>
+      <c r="C137" s="3">
+        <v>3</v>
+      </c>
+      <c r="D137" s="3">
+        <v>1265.73</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>1</v>
+      </c>
+      <c r="B138" s="3">
+        <v>560.01</v>
+      </c>
+      <c r="C138" s="3">
+        <v>3</v>
+      </c>
+      <c r="D138" s="3">
+        <v>1327.85</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>1</v>
+      </c>
+      <c r="B139" s="3">
+        <v>639.14</v>
+      </c>
+      <c r="C139" s="3">
+        <v>6</v>
+      </c>
+      <c r="D139" s="3">
+        <v>920.03</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>7</v>
+      </c>
+      <c r="B140" s="3">
+        <v>828.27</v>
+      </c>
+      <c r="C140" s="3">
+        <v>1</v>
+      </c>
+      <c r="D140" s="3">
+        <v>983.74</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>3</v>
+      </c>
+      <c r="B141" s="3">
+        <v>636.37</v>
+      </c>
+      <c r="C141" s="3">
+        <v>1</v>
+      </c>
+      <c r="D141" s="3">
+        <v>673.7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>1</v>
+      </c>
+      <c r="B142" s="3">
+        <v>1062.3800000000001</v>
+      </c>
+      <c r="C142" s="3">
+        <v>3</v>
+      </c>
+      <c r="D142" s="3">
+        <v>1124.1500000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>1</v>
+      </c>
+      <c r="B143" s="3">
+        <v>833.71</v>
+      </c>
+      <c r="C143" s="3">
+        <v>6</v>
+      </c>
+      <c r="D143" s="3">
+        <v>1227.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>4</v>
+      </c>
+      <c r="B144" s="3">
+        <v>1124.3499999999999</v>
+      </c>
+      <c r="C144" s="3">
+        <v>8</v>
+      </c>
+      <c r="D144" s="3">
+        <v>1408.93</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>6</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1176.3800000000001</v>
+      </c>
+      <c r="C145" s="3">
+        <v>1</v>
+      </c>
+      <c r="D145" s="3">
+        <v>1636.06</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>7</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1183.01</v>
+      </c>
+      <c r="C146" s="3">
+        <v>3</v>
+      </c>
+      <c r="D146" s="3">
+        <v>1611.68</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>8</v>
+      </c>
+      <c r="B147" s="3">
+        <v>1893.53</v>
+      </c>
+      <c r="C147" s="3">
+        <v>6</v>
+      </c>
+      <c r="D147" s="3">
+        <v>2116.9499999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>8</v>
+      </c>
+      <c r="B148" s="3">
+        <v>1259.48</v>
+      </c>
+      <c r="C148" s="3">
+        <v>6</v>
+      </c>
+      <c r="D148" s="3">
+        <v>2367.65</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>1</v>
+      </c>
+      <c r="B149" s="3">
+        <v>1181.03</v>
+      </c>
+      <c r="C149" s="3">
+        <v>3</v>
+      </c>
+      <c r="D149" s="3">
+        <v>2081.3000000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>6</v>
+      </c>
+      <c r="B150" s="3">
+        <v>358.74</v>
+      </c>
+      <c r="C150" s="3">
+        <v>1</v>
+      </c>
+      <c r="D150" s="3">
+        <v>492.52</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>1</v>
+      </c>
+      <c r="B151" s="3">
+        <v>596.46</v>
+      </c>
+      <c r="C151" s="3">
+        <v>7</v>
+      </c>
+      <c r="D151" s="3">
+        <v>1021.03</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>1</v>
+      </c>
+      <c r="B152" s="3">
+        <v>678.12</v>
+      </c>
+      <c r="C152" s="3">
+        <v>2</v>
+      </c>
+      <c r="D152" s="3">
+        <v>1391.29</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>3</v>
+      </c>
+      <c r="B153" s="3">
+        <v>582.55999999999995</v>
+      </c>
+      <c r="C153" s="3">
+        <v>1</v>
+      </c>
+      <c r="D153" s="3">
+        <v>1424.77</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>2</v>
+      </c>
+      <c r="B154" s="3">
+        <v>992.5</v>
+      </c>
+      <c r="C154" s="3">
+        <v>1</v>
+      </c>
+      <c r="D154" s="3">
+        <v>1882.8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>1</v>
+      </c>
+      <c r="B155" s="3">
+        <v>867.34</v>
+      </c>
+      <c r="C155" s="3">
+        <v>2</v>
+      </c>
+      <c r="D155" s="3">
+        <v>1030.94</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>5</v>
+      </c>
+      <c r="B156" s="3">
+        <v>996.46</v>
+      </c>
+      <c r="C156" s="3">
+        <v>3</v>
+      </c>
+      <c r="D156" s="3">
+        <v>2008.48</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>7</v>
+      </c>
+      <c r="B157" s="3">
+        <v>836.74</v>
+      </c>
+      <c r="C157" s="3">
+        <v>3</v>
+      </c>
+      <c r="D157" s="3">
+        <v>2085.81</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>7</v>
+      </c>
+      <c r="B158" s="3">
+        <v>887.13</v>
+      </c>
+      <c r="C158" s="3">
+        <v>3</v>
+      </c>
+      <c r="D158" s="3">
+        <v>1955.27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>7</v>
+      </c>
+      <c r="B159" s="3">
+        <v>916.71</v>
+      </c>
+      <c r="C159" s="3">
+        <v>6</v>
+      </c>
+      <c r="D159" s="3">
+        <v>3477.38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>3</v>
+      </c>
+      <c r="B160" s="3">
+        <v>779.43</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="3">
+        <v>1049.1500000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>6</v>
+      </c>
+      <c r="B161" s="3">
+        <v>443.49</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="3">
+        <v>915.28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>3</v>
+      </c>
+      <c r="B162" s="3">
+        <v>643.34</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="3">
+        <v>1719.21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>5</v>
+      </c>
+      <c r="B163" s="3">
+        <v>913.11</v>
+      </c>
+      <c r="C163" s="3">
+        <v>2</v>
+      </c>
+      <c r="D163" s="3">
+        <v>2928.82</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>8</v>
+      </c>
+      <c r="B164" s="3">
+        <v>746.87</v>
+      </c>
+      <c r="C164" s="3">
+        <v>6</v>
+      </c>
+      <c r="D164" s="3">
+        <v>1989.83</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>8</v>
+      </c>
+      <c r="B165" s="3">
+        <v>280.12</v>
+      </c>
+      <c r="C165" s="3">
+        <v>6</v>
+      </c>
+      <c r="D165" s="3">
+        <v>631.52</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>7</v>
+      </c>
+      <c r="B166" s="3">
+        <v>972.64</v>
+      </c>
+      <c r="C166" s="3">
+        <v>6</v>
+      </c>
+      <c r="D166" s="3">
+        <v>3073.83</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>7</v>
+      </c>
+      <c r="B167" s="3">
+        <v>2853.89</v>
+      </c>
+      <c r="C167" s="3">
+        <v>8</v>
+      </c>
+      <c r="D167" s="3">
+        <v>3190.53</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>7</v>
+      </c>
+      <c r="B168" s="3">
+        <v>1017.65</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="3">
+        <v>2640.93</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>8</v>
+      </c>
+      <c r="B169" s="3">
+        <v>931.8</v>
+      </c>
+      <c r="C169" s="3">
+        <v>6</v>
+      </c>
+      <c r="D169" s="3">
+        <v>1762.38</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>8</v>
+      </c>
+      <c r="B170" s="3">
+        <v>811.86</v>
+      </c>
+      <c r="C170" s="3">
+        <v>6</v>
+      </c>
+      <c r="D170" s="3">
+        <v>1116.23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>5</v>
+      </c>
+      <c r="B171" s="3">
+        <v>913.41</v>
+      </c>
+      <c r="C171" s="3">
+        <v>3</v>
+      </c>
+      <c r="D171" s="3">
+        <v>965.95</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>8</v>
+      </c>
+      <c r="B172" s="3">
+        <v>796.45</v>
+      </c>
+      <c r="C172" s="3">
+        <v>4</v>
+      </c>
+      <c r="D172" s="3">
+        <v>1054.6099999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>7</v>
+      </c>
+      <c r="B173" s="3">
+        <v>606.58000000000004</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="3">
+        <v>633.55999999999995</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>3</v>
+      </c>
+      <c r="B174" s="3">
+        <v>613.73</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="3">
+        <v>729.79</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>6</v>
+      </c>
+      <c r="B175" s="3">
+        <v>722.4</v>
+      </c>
+      <c r="C175" s="3">
+        <v>7</v>
+      </c>
+      <c r="D175" s="3">
+        <v>736.87</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>8</v>
+      </c>
+      <c r="B176" s="3">
+        <v>1506.3</v>
+      </c>
+      <c r="C176" s="3">
+        <v>6</v>
+      </c>
+      <c r="D176" s="3">
+        <v>2238.62</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>1</v>
+      </c>
+      <c r="B177" s="3">
+        <v>1261.48</v>
+      </c>
+      <c r="C177" s="3">
+        <v>3</v>
+      </c>
+      <c r="D177" s="3">
+        <v>1742.29</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>1</v>
+      </c>
+      <c r="B178" s="3">
+        <v>1261.94</v>
+      </c>
+      <c r="C178" s="3">
+        <v>3</v>
+      </c>
+      <c r="D178" s="3">
+        <v>1430.72</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>3</v>
+      </c>
+      <c r="B179" s="3">
+        <v>1986.85</v>
+      </c>
+      <c r="C179" s="3">
+        <v>5</v>
+      </c>
+      <c r="D179" s="3">
+        <v>2134.36</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>8</v>
+      </c>
+      <c r="B180" s="3">
+        <v>1233.99</v>
+      </c>
+      <c r="C180" s="3">
+        <v>6</v>
+      </c>
+      <c r="D180" s="3">
+        <v>2442.29</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>8</v>
+      </c>
+      <c r="B181" s="3">
+        <v>491.25</v>
+      </c>
+      <c r="C181" s="3">
+        <v>6</v>
+      </c>
+      <c r="D181" s="3">
+        <v>1514.55</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>1</v>
+      </c>
+      <c r="B182" s="3">
+        <v>1227.46</v>
+      </c>
+      <c r="C182" s="3">
+        <v>6</v>
+      </c>
+      <c r="D182" s="3">
+        <v>1837.57</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>6</v>
+      </c>
+      <c r="B183" s="3">
+        <v>706.4</v>
+      </c>
+      <c r="C183" s="3">
+        <v>7</v>
+      </c>
+      <c r="D183" s="3">
+        <v>878.72</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>1</v>
+      </c>
+      <c r="B184" s="3">
+        <v>461.27</v>
+      </c>
+      <c r="C184" s="3">
+        <v>6</v>
+      </c>
+      <c r="D184" s="3">
+        <v>892.35</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>6</v>
+      </c>
+      <c r="B185" s="3">
+        <v>966.7</v>
+      </c>
+      <c r="C185" s="3">
+        <v>7</v>
+      </c>
+      <c r="D185" s="3">
+        <v>1049.1600000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>6</v>
+      </c>
+      <c r="B186" s="3">
+        <v>326.95</v>
+      </c>
+      <c r="C186" s="3">
+        <v>8</v>
+      </c>
+      <c r="D186" s="3">
+        <v>657.54</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>7</v>
+      </c>
+      <c r="B187" s="3">
+        <v>795.54</v>
+      </c>
+      <c r="C187" s="3">
+        <v>6</v>
+      </c>
+      <c r="D187" s="3">
+        <v>1253.83</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>8</v>
+      </c>
+      <c r="B188" s="3">
+        <v>132135.81</v>
+      </c>
+      <c r="C188" s="3">
+        <v>7</v>
+      </c>
+      <c r="D188" s="3">
+        <v>140457.75</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>2</v>
+      </c>
+      <c r="B189" s="3">
+        <v>1016.33</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1</v>
+      </c>
+      <c r="D189" s="3">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>3</v>
+      </c>
+      <c r="B190" s="3">
+        <v>444.94</v>
+      </c>
+      <c r="C190" s="3">
+        <v>1</v>
+      </c>
+      <c r="D190" s="3">
+        <v>1632.12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>6</v>
+      </c>
+      <c r="B191" s="3">
+        <v>347.45</v>
+      </c>
+      <c r="C191" s="3">
+        <v>1</v>
+      </c>
+      <c r="D191" s="3">
+        <v>827.62</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>8</v>
+      </c>
+      <c r="B192" s="3">
+        <v>431.66</v>
+      </c>
+      <c r="C192" s="3">
+        <v>6</v>
+      </c>
+      <c r="D192" s="3">
+        <v>569.65</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>8</v>
+      </c>
+      <c r="B193" s="3">
+        <v>687.32</v>
+      </c>
+      <c r="C193" s="3">
+        <v>6</v>
+      </c>
+      <c r="D193" s="3">
+        <v>1891.47</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>8</v>
+      </c>
+      <c r="B194" s="3">
+        <v>941.38</v>
+      </c>
+      <c r="C194" s="3">
+        <v>6</v>
+      </c>
+      <c r="D194" s="3">
+        <v>1511.49</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>1</v>
+      </c>
+      <c r="B195" s="3">
+        <v>1108.71</v>
+      </c>
+      <c r="C195" s="3">
+        <v>3</v>
+      </c>
+      <c r="D195" s="3">
+        <v>1703.89</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>5</v>
+      </c>
+      <c r="B196" s="3">
+        <v>1658.61</v>
+      </c>
+      <c r="C196" s="3">
+        <v>2</v>
+      </c>
+      <c r="D196" s="3">
+        <v>1931.15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>4</v>
+      </c>
+      <c r="B197" s="3">
+        <v>763.65</v>
+      </c>
+      <c r="C197" s="3">
+        <v>6</v>
+      </c>
+      <c r="D197" s="3">
+        <v>1178.77</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>8</v>
+      </c>
+      <c r="B198" s="3">
+        <v>500.16</v>
+      </c>
+      <c r="C198" s="3">
+        <v>6</v>
+      </c>
+      <c r="D198" s="3">
+        <v>1400.15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>6</v>
+      </c>
+      <c r="B199" s="3">
+        <v>855.75</v>
+      </c>
+      <c r="C199" s="3">
+        <v>1</v>
+      </c>
+      <c r="D199" s="3">
+        <v>1061.9000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>6</v>
+      </c>
+      <c r="B200" s="3">
+        <v>939.02</v>
+      </c>
+      <c r="C200" s="3">
+        <v>8</v>
+      </c>
+      <c r="D200" s="3">
+        <v>1146.6600000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>8</v>
+      </c>
+      <c r="B201" s="3">
+        <v>980.59</v>
+      </c>
+      <c r="C201" s="3">
+        <v>6</v>
+      </c>
+      <c r="D201" s="3">
+        <v>1336.61</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>3</v>
+      </c>
+      <c r="B202" s="3">
+        <v>776.7</v>
+      </c>
+      <c r="C202" s="3">
+        <v>1</v>
+      </c>
+      <c r="D202" s="3">
+        <v>1054.3699999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>6</v>
+      </c>
+      <c r="B203" s="3">
+        <v>327.35000000000002</v>
+      </c>
+      <c r="C203" s="3">
+        <v>1</v>
+      </c>
+      <c r="D203" s="3">
+        <v>597.79</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>6</v>
+      </c>
+      <c r="B204" s="3">
+        <v>732.72</v>
+      </c>
+      <c r="C204" s="3">
+        <v>8</v>
+      </c>
+      <c r="D204" s="3">
+        <v>935.81</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>8</v>
+      </c>
+      <c r="B205" s="3">
+        <v>729.38</v>
+      </c>
+      <c r="C205" s="3">
+        <v>6</v>
+      </c>
+      <c r="D205" s="3">
+        <v>1139.6199999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <v>8</v>
+      </c>
+      <c r="B206" s="3">
+        <v>905.9</v>
+      </c>
+      <c r="C206" s="3">
+        <v>7</v>
+      </c>
+      <c r="D206" s="3">
+        <v>1311.85</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>6</v>
+      </c>
+      <c r="B207" s="3">
+        <v>505.87</v>
+      </c>
+      <c r="C207" s="3">
+        <v>8</v>
+      </c>
+      <c r="D207" s="3">
+        <v>584.23</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>6</v>
+      </c>
+      <c r="B208" s="3">
+        <v>299.95999999999998</v>
+      </c>
+      <c r="C208" s="3">
+        <v>8</v>
+      </c>
+      <c r="D208" s="3">
+        <v>558.36</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>8</v>
+      </c>
+      <c r="B209" s="3">
+        <v>431.28</v>
+      </c>
+      <c r="C209" s="3">
+        <v>6</v>
+      </c>
+      <c r="D209" s="3">
+        <v>1281.02</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>8</v>
+      </c>
+      <c r="B210" s="3">
+        <v>700.66</v>
+      </c>
+      <c r="C210" s="3">
+        <v>6</v>
+      </c>
+      <c r="D210" s="3">
+        <v>1809.6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>8</v>
+      </c>
+      <c r="B211" s="3">
+        <v>1075.77</v>
+      </c>
+      <c r="C211" s="3">
+        <v>7</v>
+      </c>
+      <c r="D211" s="3">
+        <v>1832.06</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>6</v>
+      </c>
+      <c r="B212" s="3">
+        <v>577.29999999999995</v>
+      </c>
+      <c r="C212" s="3">
+        <v>1</v>
+      </c>
+      <c r="D212" s="3">
+        <v>1247.53</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>6</v>
+      </c>
+      <c r="B213" s="3">
+        <v>313.68</v>
+      </c>
+      <c r="C213" s="3">
+        <v>8</v>
+      </c>
+      <c r="D213" s="3">
+        <v>466.89</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>7</v>
+      </c>
+      <c r="B214" s="3">
+        <v>2019.83</v>
+      </c>
+      <c r="C214" s="3">
+        <v>6</v>
+      </c>
+      <c r="D214" s="3">
+        <v>5068.46</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>8</v>
+      </c>
+      <c r="B215" s="3">
+        <v>1333.8</v>
+      </c>
+      <c r="C215" s="3">
+        <v>6</v>
+      </c>
+      <c r="D215" s="3">
+        <v>2494.9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>6</v>
+      </c>
+      <c r="B216" s="3">
+        <v>785.09</v>
+      </c>
+      <c r="C216" s="3">
+        <v>7</v>
+      </c>
+      <c r="D216" s="3">
+        <v>910.36</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>7</v>
+      </c>
+      <c r="B217" s="3">
+        <v>1208.77</v>
+      </c>
+      <c r="C217" s="3">
+        <v>3</v>
+      </c>
+      <c r="D217" s="3">
+        <v>2597.35</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <v>7</v>
+      </c>
+      <c r="B218" s="3">
+        <v>881.5</v>
+      </c>
+      <c r="C218" s="3">
+        <v>6</v>
+      </c>
+      <c r="D218" s="3">
+        <v>3428.21</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>7</v>
+      </c>
+      <c r="B219" s="3">
+        <v>911.21</v>
+      </c>
+      <c r="C219" s="3">
+        <v>6</v>
+      </c>
+      <c r="D219" s="3">
+        <v>1950.91</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>7</v>
+      </c>
+      <c r="B220" s="3">
+        <v>643.41999999999996</v>
+      </c>
+      <c r="C220" s="3">
+        <v>6</v>
+      </c>
+      <c r="D220" s="3">
+        <v>2070.2399999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>7</v>
+      </c>
+      <c r="B221" s="3">
+        <v>1322.94</v>
+      </c>
+      <c r="C221" s="3">
+        <v>8</v>
+      </c>
+      <c r="D221" s="3">
+        <v>3336.24</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>6</v>
+      </c>
+      <c r="B222" s="3">
+        <v>1168.1199999999999</v>
+      </c>
+      <c r="C222" s="3">
+        <v>7</v>
+      </c>
+      <c r="D222" s="3">
+        <v>1337.61</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>7</v>
+      </c>
+      <c r="B223" s="3">
+        <v>579.69000000000005</v>
+      </c>
+      <c r="C223" s="3">
+        <v>6</v>
+      </c>
+      <c r="D223" s="3">
+        <v>602.54999999999995</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>1</v>
+      </c>
+      <c r="B224" s="3">
+        <v>372.59</v>
+      </c>
+      <c r="C224" s="3">
+        <v>6</v>
+      </c>
+      <c r="D224" s="3">
+        <v>1666.83</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>2</v>
+      </c>
+      <c r="B225" s="3">
+        <v>1507.24</v>
+      </c>
+      <c r="C225" s="3">
+        <v>1</v>
+      </c>
+      <c r="D225" s="3">
+        <v>1627.82</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>3</v>
+      </c>
+      <c r="B226" s="3">
+        <v>1427.87</v>
+      </c>
+      <c r="C226" s="3">
+        <v>5</v>
+      </c>
+      <c r="D226" s="3">
+        <v>1620.61</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>7</v>
+      </c>
+      <c r="B227" s="3">
+        <v>1187.7</v>
+      </c>
+      <c r="C227" s="3">
+        <v>8</v>
+      </c>
+      <c r="D227" s="3">
+        <v>1606.19</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>1</v>
+      </c>
+      <c r="B228" s="3">
+        <v>904.76</v>
+      </c>
+      <c r="C228" s="3">
+        <v>6</v>
+      </c>
+      <c r="D228" s="3">
+        <v>1204.6199999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>8</v>
+      </c>
+      <c r="B229" s="3">
+        <v>922.28</v>
+      </c>
+      <c r="C229" s="3">
+        <v>6</v>
+      </c>
+      <c r="D229" s="3">
+        <v>1210.4100000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>1</v>
+      </c>
+      <c r="B230" s="3">
+        <v>1048.25</v>
+      </c>
+      <c r="C230" s="3">
+        <v>6</v>
+      </c>
+      <c r="D230" s="3">
+        <v>1193.07</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>6</v>
+      </c>
+      <c r="B231" s="3">
+        <v>599.82000000000005</v>
+      </c>
+      <c r="C231" s="3">
+        <v>8</v>
+      </c>
+      <c r="D231" s="3">
+        <v>1205.24</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>1</v>
+      </c>
+      <c r="B232" s="3">
+        <v>592.79</v>
+      </c>
+      <c r="C232" s="3">
+        <v>3</v>
+      </c>
+      <c r="D232" s="3">
+        <v>1669.78</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>1</v>
+      </c>
+      <c r="B233" s="3">
+        <v>496.65</v>
+      </c>
+      <c r="C233" s="3">
+        <v>3</v>
+      </c>
+      <c r="D233" s="3">
+        <v>1207.8499999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>4</v>
+      </c>
+      <c r="B234" s="3">
+        <v>1091.3800000000001</v>
+      </c>
+      <c r="C234" s="3">
+        <v>1</v>
+      </c>
+      <c r="D234" s="3">
+        <v>1279.06</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <v>6</v>
+      </c>
+      <c r="B235" s="3">
+        <v>593.61</v>
+      </c>
+      <c r="C235" s="3">
+        <v>8</v>
+      </c>
+      <c r="D235" s="3">
+        <v>811.41</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <v>8</v>
+      </c>
+      <c r="B236" s="3">
+        <v>364.84</v>
+      </c>
+      <c r="C236" s="3">
+        <v>6</v>
+      </c>
+      <c r="D236" s="3">
+        <v>1152.9100000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <v>8</v>
+      </c>
+      <c r="B237" s="3">
+        <v>672.85</v>
+      </c>
+      <c r="C237" s="3">
+        <v>6</v>
+      </c>
+      <c r="D237" s="3">
+        <v>1931.57</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <v>5</v>
+      </c>
+      <c r="B238" s="3">
+        <v>630.11</v>
+      </c>
+      <c r="C238" s="3">
+        <v>3</v>
+      </c>
+      <c r="D238" s="3">
+        <v>1939.15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>5</v>
+      </c>
+      <c r="B239" s="3">
+        <v>721.01</v>
+      </c>
+      <c r="C239" s="3">
+        <v>3</v>
+      </c>
+      <c r="D239" s="3">
+        <v>2244.5100000000002</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <v>1</v>
+      </c>
+      <c r="B240" s="3">
+        <v>415.03</v>
+      </c>
+      <c r="C240" s="3">
+        <v>6</v>
+      </c>
+      <c r="D240" s="3">
+        <v>1670.15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <v>1</v>
+      </c>
+      <c r="B241" s="3">
+        <v>312.02</v>
+      </c>
+      <c r="C241" s="3">
+        <v>3</v>
+      </c>
+      <c r="D241" s="3">
+        <v>1156.71</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <v>1</v>
+      </c>
+      <c r="B242" s="3">
+        <v>541.92999999999995</v>
+      </c>
+      <c r="C242" s="3">
+        <v>3</v>
+      </c>
+      <c r="D242" s="3">
+        <v>1084.95</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>7</v>
+      </c>
+      <c r="B243" s="3">
+        <v>1961.2</v>
+      </c>
+      <c r="C243" s="3">
+        <v>3</v>
+      </c>
+      <c r="D243" s="3">
+        <v>2173.5500000000002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>3</v>
+      </c>
+      <c r="B244" s="3">
+        <v>2296.92</v>
+      </c>
+      <c r="C244" s="3">
+        <v>5</v>
+      </c>
+      <c r="D244" s="3">
+        <v>4901.91</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <v>6</v>
+      </c>
+      <c r="B245" s="3">
+        <v>570.88</v>
+      </c>
+      <c r="C245" s="3">
+        <v>7</v>
+      </c>
+      <c r="D245" s="3">
+        <v>774.65</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <v>8</v>
+      </c>
+      <c r="B246" s="3">
+        <v>132135.81</v>
+      </c>
+      <c r="C246" s="3">
+        <v>7</v>
+      </c>
+      <c r="D246" s="3">
+        <v>140457.75</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <v>1</v>
+      </c>
+      <c r="B247" s="3">
+        <v>1546.7</v>
+      </c>
+      <c r="C247" s="3">
+        <v>3</v>
+      </c>
+      <c r="D247" s="3">
+        <v>2380.67</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <v>7</v>
+      </c>
+      <c r="B248" s="3">
+        <v>3390.65</v>
+      </c>
+      <c r="C248" s="3">
+        <v>3</v>
+      </c>
+      <c r="D248" s="3">
+        <v>4048.98</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <v>6</v>
+      </c>
+      <c r="B249" s="3">
+        <v>1849.99</v>
+      </c>
+      <c r="C249" s="3">
+        <v>4</v>
+      </c>
+      <c r="D249" s="3">
+        <v>2805.88</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
+        <v>6</v>
+      </c>
+      <c r="B250" s="3">
+        <v>1525.45</v>
+      </c>
+      <c r="C250" s="3">
+        <v>8</v>
+      </c>
+      <c r="D250" s="3">
+        <v>1953.34</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
+        <v>7</v>
+      </c>
+      <c r="B251" s="3">
+        <v>516.79999999999995</v>
+      </c>
+      <c r="C251" s="3">
+        <v>1</v>
+      </c>
+      <c r="D251" s="3">
+        <v>1408.87</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
+        <v>8</v>
+      </c>
+      <c r="B252" s="3">
+        <v>966.4</v>
+      </c>
+      <c r="C252" s="3">
+        <v>6</v>
+      </c>
+      <c r="D252" s="3">
+        <v>1438.3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
+        <v>7</v>
+      </c>
+      <c r="B253" s="3">
+        <v>638.47</v>
+      </c>
+      <c r="C253" s="3">
+        <v>6</v>
+      </c>
+      <c r="D253" s="3">
+        <v>987.44</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
+        <v>7</v>
+      </c>
+      <c r="B254" s="3">
+        <v>1221.79</v>
+      </c>
+      <c r="C254" s="3">
+        <v>8</v>
+      </c>
+      <c r="D254" s="3">
+        <v>1583.67</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
+        <v>1</v>
+      </c>
+      <c r="B255" s="3">
+        <v>951.99</v>
+      </c>
+      <c r="C255" s="3">
+        <v>7</v>
+      </c>
+      <c r="D255" s="3">
+        <v>1180.78</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
+        <v>7</v>
+      </c>
+      <c r="B256" s="3">
+        <v>609.58000000000004</v>
+      </c>
+      <c r="C256" s="3">
+        <v>6</v>
+      </c>
+      <c r="D256" s="3">
+        <v>1321.7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
+        <v>2</v>
+      </c>
+      <c r="B257" s="3">
+        <v>4257.82</v>
+      </c>
+      <c r="C257" s="3">
+        <v>4</v>
+      </c>
+      <c r="D257" s="3">
+        <v>5500.67</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
+        <v>2</v>
+      </c>
+      <c r="B258" s="3">
+        <v>791.12</v>
+      </c>
+      <c r="C258" s="3">
+        <v>5</v>
+      </c>
+      <c r="D258" s="3">
+        <v>1931.91</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
+        <v>8</v>
+      </c>
+      <c r="B259" s="3">
+        <v>803.59</v>
+      </c>
+      <c r="C259" s="3">
+        <v>6</v>
+      </c>
+      <c r="D259" s="3">
+        <v>886.2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
+        <v>7</v>
+      </c>
+      <c r="B260" s="3">
+        <v>266.49</v>
+      </c>
+      <c r="C260" s="3">
+        <v>6</v>
+      </c>
+      <c r="D260" s="3">
+        <v>975.36</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
+        <v>7</v>
+      </c>
+      <c r="B261" s="3">
+        <v>538.32000000000005</v>
+      </c>
+      <c r="C261" s="3">
+        <v>8</v>
+      </c>
+      <c r="D261" s="3">
+        <v>2032.39</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
+        <v>7</v>
+      </c>
+      <c r="B262" s="3">
+        <v>357.05</v>
+      </c>
+      <c r="C262" s="3">
+        <v>6</v>
+      </c>
+      <c r="D262" s="3">
+        <v>759.2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
+        <v>4</v>
+      </c>
+      <c r="B263" s="3">
+        <v>1404.53</v>
+      </c>
+      <c r="C263" s="3">
+        <v>8</v>
+      </c>
+      <c r="D263" s="3">
+        <v>4124.22</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
+        <v>4</v>
+      </c>
+      <c r="B264" s="3">
+        <v>2063.14</v>
+      </c>
+      <c r="C264" s="3">
+        <v>8</v>
+      </c>
+      <c r="D264" s="3">
+        <v>2760.49</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
+        <v>1</v>
+      </c>
+      <c r="B265" s="3">
+        <v>837.85</v>
+      </c>
+      <c r="C265" s="3">
+        <v>6</v>
+      </c>
+      <c r="D265" s="3">
+        <v>855.07</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="3">
+        <v>6</v>
+      </c>
+      <c r="B266" s="3">
+        <v>443.95</v>
+      </c>
+      <c r="C266" s="3">
+        <v>1</v>
+      </c>
+      <c r="D266" s="3">
+        <v>545.85</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
+        <v>6</v>
+      </c>
+      <c r="B267" s="3">
+        <v>443.95</v>
+      </c>
+      <c r="C267" s="3">
+        <v>1</v>
+      </c>
+      <c r="D267" s="3">
+        <v>545.85</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="3">
+        <v>8</v>
+      </c>
+      <c r="B268" s="3">
+        <v>414.54</v>
+      </c>
+      <c r="C268" s="3">
+        <v>6</v>
+      </c>
+      <c r="D268" s="3">
+        <v>443.87</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
+        <v>8</v>
+      </c>
+      <c r="B269" s="3">
+        <v>757.18</v>
+      </c>
+      <c r="C269" s="3">
+        <v>6</v>
+      </c>
+      <c r="D269" s="3">
+        <v>1157.01</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
+        <v>1</v>
+      </c>
+      <c r="B270" s="3">
+        <v>891.78</v>
+      </c>
+      <c r="C270" s="3">
+        <v>6</v>
+      </c>
+      <c r="D270" s="3">
+        <v>1012.45</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
+        <v>1</v>
+      </c>
+      <c r="B271" s="3">
+        <v>630.49</v>
+      </c>
+      <c r="C271" s="3">
+        <v>3</v>
+      </c>
+      <c r="D271" s="3">
+        <v>890.13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
+        <v>7</v>
+      </c>
+      <c r="B272" s="3">
+        <v>397.99</v>
+      </c>
+      <c r="C272" s="3">
+        <v>6</v>
+      </c>
+      <c r="D272" s="3">
+        <v>1802.31</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
+        <v>8</v>
+      </c>
+      <c r="B273" s="3">
+        <v>320.49</v>
+      </c>
+      <c r="C273" s="3">
+        <v>6</v>
+      </c>
+      <c r="D273" s="3">
+        <v>1506.58</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
+        <v>1</v>
+      </c>
+      <c r="B274" s="3">
+        <v>1285.1500000000001</v>
+      </c>
+      <c r="C274" s="3">
+        <v>6</v>
+      </c>
+      <c r="D274" s="3">
+        <v>2119.9899999999998</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
+        <v>3</v>
+      </c>
+      <c r="B275" s="3">
+        <v>438.77</v>
+      </c>
+      <c r="C275" s="3">
+        <v>5</v>
+      </c>
+      <c r="D275" s="3">
+        <v>1601.31</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
+        <v>1</v>
+      </c>
+      <c r="B276" s="3">
+        <v>707.3</v>
+      </c>
+      <c r="C276" s="3">
+        <v>6</v>
+      </c>
+      <c r="D276" s="3">
+        <v>1370.55</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
+        <v>7</v>
+      </c>
+      <c r="B277" s="3">
+        <v>759.66</v>
+      </c>
+      <c r="C277" s="3">
+        <v>6</v>
+      </c>
+      <c r="D277" s="3">
+        <v>1980.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Все программы для диплома/UniversalWindow/Для класстеров.xlsx
+++ b/Все программы для диплома/UniversalWindow/Для класстеров.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Жінки" sheetId="5" r:id="rId1"/>
@@ -22237,7 +22237,7 @@
   <dimension ref="A1:X270"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42168,7 +42168,7 @@
   <dimension ref="A1:X323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42197,7 +42197,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -66122,7 +66122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
